--- a/Excel/Window@c.xlsx
+++ b/Excel/Window@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Window" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -64,7 +64,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>UILogin</t>
   </si>
   <si>
     <t>Login/UILogin</t>
@@ -73,7 +73,7 @@
     <t>服务器列表</t>
   </si>
   <si>
-    <t>ServerList</t>
+    <t>UIServerList</t>
   </si>
   <si>
     <t>Login/UIServerList</t>
@@ -82,10 +82,19 @@
     <t>主窗口</t>
   </si>
   <si>
-    <t>Main</t>
+    <t>UIMain</t>
   </si>
   <si>
     <t>Main/UIMain</t>
+  </si>
+  <si>
+    <t>UIPop</t>
+  </si>
+  <si>
+    <t>Pop/UIPop</t>
+  </si>
+  <si>
+    <t>Pop提示</t>
   </si>
 </sst>
 </file>
@@ -718,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,22 +1090,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I8"/>
+  <dimension ref="C2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.71666666666667" style="4" customWidth="1"/>
-    <col min="4" max="5" width="11.55" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.71818181818182" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.5545454545455" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.87272727272727" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.26666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.2909090909091" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" ht="13.5" spans="3:9">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" ht="13.5" spans="3:9">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1158,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1204,19 +1210,49 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="3:8">
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>1003</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="9" s="2" customFormat="1" spans="3:9">
+      <c r="C9" s="2">
+        <v>1004</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1"/>
+    <row r="18" s="2" customFormat="1"/>
+    <row r="19" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Window@c.xlsx
+++ b/Excel/Window@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Window" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Pop提示</t>
+  </si>
+  <si>
+    <t>UILoading</t>
+  </si>
+  <si>
+    <t>Loading/UILoading</t>
   </si>
 </sst>
 </file>
@@ -1093,19 +1099,19 @@
   <dimension ref="C2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.71818181818182" style="4" customWidth="1"/>
-    <col min="4" max="5" width="11.5545454545455" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.71666666666667" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.5583333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9.87272727272727" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.2909090909091" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.2916666666667" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="3:9">
+    <row r="3" spans="3:9">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:9">
+    <row r="4" spans="3:9">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="13.5" spans="3:9">
+    <row r="5" spans="3:9">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1243,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1" spans="3:8">
+      <c r="C10" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="11" s="2" customFormat="1"/>
     <row r="12" s="2" customFormat="1"/>
     <row r="13" s="2" customFormat="1"/>

--- a/Excel/Window@c.xlsx
+++ b/Excel/Window@c.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Window" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -101,12 +114,21 @@
   </si>
   <si>
     <t>Loading/UILoading</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>UIChat</t>
+  </si>
+  <si>
+    <t>Chat/UIChat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1099,7 +1121,7 @@
   <dimension ref="C2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1254,7 +1276,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1" spans="3:8">
+      <c r="C11" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="12" s="2" customFormat="1"/>
     <row r="13" s="2" customFormat="1"/>
     <row r="14" s="2" customFormat="1"/>

--- a/Excel/Window@c.xlsx
+++ b/Excel/Window@c.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Window" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -74,27 +77,18 @@
     <t>string</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>UILogin</t>
   </si>
   <si>
     <t>Login/UILogin</t>
   </si>
   <si>
-    <t>服务器列表</t>
-  </si>
-  <si>
     <t>UIServerList</t>
   </si>
   <si>
     <t>Login/UIServerList</t>
   </si>
   <si>
-    <t>主窗口</t>
-  </si>
-  <si>
     <t>UIMain</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
   </si>
   <si>
     <t>Loading/UILoading</t>
-  </si>
-  <si>
-    <t>聊天</t>
   </si>
   <si>
     <t>UIChat</t>
@@ -829,6 +820,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Common"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>内容</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Msg</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>3001</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>登录</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>3002</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>服务器列表</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>3003</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>主窗口</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>3004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>3005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>3006</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>聊天</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I25"/>
+  <dimension ref="C2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1130,19 +1201,23 @@
     <col min="2" max="2" width="12.7583333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.71666666666667" style="4" customWidth="1"/>
     <col min="4" max="5" width="11.5583333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.2916666666667" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="8.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.2916666666667" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:9">
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="6:10">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:10">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1153,19 +1228,22 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:10">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1175,119 +1253,151 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:10">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>3001</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Common!$C:$D,2,FALSE)</f>
+        <v>登录</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:9">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Common!$C:$D,2,FALSE)</f>
+        <v>服务器列表</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="3:8">
+    <row r="8" s="2" customFormat="1" spans="3:9">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
+      <c r="D8" s="1">
+        <v>3003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Common!$C:$D,2,FALSE)</f>
+        <v>主窗口</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="3:9">
+    <row r="9" s="2" customFormat="1" spans="3:10">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
+      <c r="D9" s="1">
+        <v>3004</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <f>VLOOKUP(D:D,[1]Common!$C:$D,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:8">
+    <row r="10" s="2" customFormat="1" spans="3:9">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
+      <c r="D10" s="1">
+        <v>3005</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <f>VLOOKUP(D:D,[1]Common!$C:$D,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="3:8">
+    <row r="11" s="2" customFormat="1" spans="3:9">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
+      <c r="D11" s="1">
+        <v>3006</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Common!$C:$D,2,FALSE)</f>
+        <v>聊天</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1"/>

--- a/Excel/Window@c.xlsx
+++ b/Excel/Window@c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFCEC91-D147-4E29-8ECD-EEB03CE24F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3669617B-EB5B-4214-9AE9-10B90F21AB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Login/UIRoleSelect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoleProperties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleProperties/UIRoleProperties</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +619,7 @@
   <dimension ref="C2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -832,7 +844,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="3:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="3:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="C13" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3008</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="14" spans="3:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:10" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35"/>
